--- a/MyFirstExcel.xlsx
+++ b/MyFirstExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Datatype</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>No fixed size</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -79,10 +82,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -91,7 +94,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -111,7 +114,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -122,7 +125,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -133,7 +136,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>8.0</v>
@@ -144,7 +147,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
